--- a/TotalSegmentator_DSC_sorted.xlsx
+++ b/TotalSegmentator_DSC_sorted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssarka62\Documents\GitHub\error_characterization_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C90AF7-740C-40CC-9F6B-6DAFC29AF165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CBCF08-1BB2-4A08-B680-A73C1B282827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="1095" windowWidth="28890" windowHeight="15105" xr2:uid="{F0FE7F49-EE57-4395-B28D-59EF8A3217DD}"/>
+    <workbookView xWindow="-28935" yWindow="0" windowWidth="28890" windowHeight="15585" xr2:uid="{F0FE7F49-EE57-4395-B28D-59EF8A3217DD}"/>
   </bookViews>
   <sheets>
     <sheet name="TotalSegmentator_DSC_sorted" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
-  <si>
-    <t>value</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>lung_right_lower_lobe</t>
   </si>
@@ -335,6 +332,12 @@
   </si>
   <si>
     <t>face</t>
+  </si>
+  <si>
+    <t>Organ</t>
+  </si>
+  <si>
+    <t>DSC</t>
   </si>
 </sst>
 </file>
@@ -659,13 +662,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,7 +1215,7 @@
   <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,13 +1225,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0.98799999999999999</v>
@@ -1236,7 +1242,7 @@
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.98499999999999999</v>
@@ -1244,7 +1250,7 @@
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.98399999999999999</v>
@@ -1252,7 +1258,7 @@
     </row>
     <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.98399999999999999</v>
@@ -1260,7 +1266,7 @@
     </row>
     <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>0.98299999999999998</v>
@@ -1268,7 +1274,7 @@
     </row>
     <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>0.98099999999999998</v>
@@ -1276,7 +1282,7 @@
     </row>
     <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.98099999999999998</v>
@@ -1284,7 +1290,7 @@
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0.98</v>
@@ -1292,7 +1298,7 @@
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.97899999999999998</v>
@@ -1300,7 +1306,7 @@
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.97699999999999998</v>
@@ -1308,7 +1314,7 @@
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.97499999999999998</v>
@@ -1316,7 +1322,7 @@
     </row>
     <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.97499999999999998</v>
@@ -1324,7 +1330,7 @@
     </row>
     <row r="14" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.97299999999999998</v>
@@ -1332,7 +1338,7 @@
     </row>
     <row r="15" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.97099999999999997</v>
@@ -1340,7 +1346,7 @@
     </row>
     <row r="16" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.97</v>
@@ -1348,7 +1354,7 @@
     </row>
     <row r="17" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.96899999999999997</v>
@@ -1356,7 +1362,7 @@
     </row>
     <row r="18" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.96899999999999997</v>
@@ -1364,7 +1370,7 @@
     </row>
     <row r="19" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.96899999999999997</v>
@@ -1372,7 +1378,7 @@
     </row>
     <row r="20" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.96899999999999997</v>
@@ -1380,7 +1386,7 @@
     </row>
     <row r="21" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.96799999999999997</v>
@@ -1388,7 +1394,7 @@
     </row>
     <row r="22" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.96799999999999997</v>
@@ -1396,7 +1402,7 @@
     </row>
     <row r="23" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.96799999999999997</v>
@@ -1404,7 +1410,7 @@
     </row>
     <row r="24" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0.96599999999999997</v>
@@ -1412,7 +1418,7 @@
     </row>
     <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>0.96499999999999997</v>
@@ -1420,7 +1426,7 @@
     </row>
     <row r="26" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>0.96499999999999997</v>
@@ -1428,7 +1434,7 @@
     </row>
     <row r="27" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.96499999999999997</v>
@@ -1436,7 +1442,7 @@
     </row>
     <row r="28" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.96399999999999997</v>
@@ -1444,7 +1450,7 @@
     </row>
     <row r="29" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.96299999999999997</v>
@@ -1452,7 +1458,7 @@
     </row>
     <row r="30" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.96099999999999997</v>
@@ -1460,7 +1466,7 @@
     </row>
     <row r="31" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0.96099999999999997</v>
@@ -1468,7 +1474,7 @@
     </row>
     <row r="32" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>0.96099999999999997</v>
@@ -1476,7 +1482,7 @@
     </row>
     <row r="33" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>0.96</v>
@@ -1484,7 +1490,7 @@
     </row>
     <row r="34" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>0.96</v>
@@ -1492,7 +1498,7 @@
     </row>
     <row r="35" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>0.96</v>
@@ -1500,7 +1506,7 @@
     </row>
     <row r="36" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>0.96</v>
@@ -1508,7 +1514,7 @@
     </row>
     <row r="37" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>0.96</v>
@@ -1516,7 +1522,7 @@
     </row>
     <row r="38" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>0.95899999999999996</v>
@@ -1524,7 +1530,7 @@
     </row>
     <row r="39" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>0.95899999999999996</v>
@@ -1532,7 +1538,7 @@
     </row>
     <row r="40" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>0.95899999999999996</v>
@@ -1540,7 +1546,7 @@
     </row>
     <row r="41" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>0.95899999999999996</v>
@@ -1548,7 +1554,7 @@
     </row>
     <row r="42" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>0.95799999999999996</v>
@@ -1556,7 +1562,7 @@
     </row>
     <row r="43" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>0.95799999999999996</v>
@@ -1564,7 +1570,7 @@
     </row>
     <row r="44" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>0.95799999999999996</v>
@@ -1572,7 +1578,7 @@
     </row>
     <row r="45" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>0.95799999999999996</v>
@@ -1580,7 +1586,7 @@
     </row>
     <row r="46" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>0.95599999999999996</v>
@@ -1588,7 +1594,7 @@
     </row>
     <row r="47" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>0.95499999999999996</v>
@@ -1596,7 +1602,7 @@
     </row>
     <row r="48" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>0.95499999999999996</v>
@@ -1604,7 +1610,7 @@
     </row>
     <row r="49" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>0.95399999999999996</v>
@@ -1612,7 +1618,7 @@
     </row>
     <row r="50" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2">
         <v>0.95299999999999996</v>
@@ -1620,7 +1626,7 @@
     </row>
     <row r="51" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>0.95299999999999996</v>
@@ -1628,7 +1634,7 @@
     </row>
     <row r="52" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>0.95199999999999996</v>
@@ -1636,7 +1642,7 @@
     </row>
     <row r="53" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>0.95</v>
@@ -1644,7 +1650,7 @@
     </row>
     <row r="54" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>0.95</v>
@@ -1652,7 +1658,7 @@
     </row>
     <row r="55" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>0.94899999999999995</v>
@@ -1660,7 +1666,7 @@
     </row>
     <row r="56" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>0.94799999999999995</v>
@@ -1668,7 +1674,7 @@
     </row>
     <row r="57" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>0.94799999999999995</v>
@@ -1676,7 +1682,7 @@
     </row>
     <row r="58" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2">
         <v>0.94699999999999995</v>
@@ -1684,7 +1690,7 @@
     </row>
     <row r="59" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>0.94699999999999995</v>
@@ -1692,7 +1698,7 @@
     </row>
     <row r="60" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>0.94499999999999995</v>
@@ -1700,7 +1706,7 @@
     </row>
     <row r="61" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>0.94499999999999995</v>
@@ -1708,7 +1714,7 @@
     </row>
     <row r="62" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>0.94399999999999995</v>
@@ -1716,7 +1722,7 @@
     </row>
     <row r="63" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="1">
         <v>0.94399999999999995</v>
@@ -1724,7 +1730,7 @@
     </row>
     <row r="64" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="2">
         <v>0.94399999999999995</v>
@@ -1732,7 +1738,7 @@
     </row>
     <row r="65" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="1">
         <v>0.94299999999999995</v>
@@ -1740,7 +1746,7 @@
     </row>
     <row r="66" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="1">
         <v>0.94199999999999995</v>
@@ -1748,7 +1754,7 @@
     </row>
     <row r="67" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1">
         <v>0.94199999999999995</v>
@@ -1756,7 +1762,7 @@
     </row>
     <row r="68" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="1">
         <v>0.94099999999999995</v>
@@ -1764,7 +1770,7 @@
     </row>
     <row r="69" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="2">
         <v>0.93899999999999995</v>
@@ -1772,7 +1778,7 @@
     </row>
     <row r="70" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="1">
         <v>0.93899999999999995</v>
@@ -1780,7 +1786,7 @@
     </row>
     <row r="71" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="1">
         <v>0.93899999999999995</v>
@@ -1788,7 +1794,7 @@
     </row>
     <row r="72" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="1">
         <v>0.93700000000000006</v>
@@ -1796,7 +1802,7 @@
     </row>
     <row r="73" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1">
         <v>0.93700000000000006</v>
@@ -1804,7 +1810,7 @@
     </row>
     <row r="74" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="1">
         <v>0.93500000000000005</v>
@@ -1812,7 +1818,7 @@
     </row>
     <row r="75" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="1">
         <v>0.93500000000000005</v>
@@ -1820,7 +1826,7 @@
     </row>
     <row r="76" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="2">
         <v>0.93400000000000005</v>
@@ -1828,7 +1834,7 @@
     </row>
     <row r="77" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="1">
         <v>0.93200000000000005</v>
@@ -1836,7 +1842,7 @@
     </row>
     <row r="78" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="1">
         <v>0.92900000000000005</v>
@@ -1844,7 +1850,7 @@
     </row>
     <row r="79" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="1">
         <v>0.92900000000000005</v>
@@ -1852,7 +1858,7 @@
     </row>
     <row r="80" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="1">
         <v>0.92800000000000005</v>
@@ -1860,7 +1866,7 @@
     </row>
     <row r="81" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="1">
         <v>0.92800000000000005</v>
@@ -1868,7 +1874,7 @@
     </row>
     <row r="82" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="1">
         <v>0.92700000000000005</v>
@@ -1876,7 +1882,7 @@
     </row>
     <row r="83" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="1">
         <v>0.92600000000000005</v>
@@ -1884,7 +1890,7 @@
     </row>
     <row r="84" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="1">
         <v>0.92500000000000004</v>
@@ -1892,7 +1898,7 @@
     </row>
     <row r="85" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="1">
         <v>0.92</v>
@@ -1900,7 +1906,7 @@
     </row>
     <row r="86" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="1">
         <v>0.91600000000000004</v>
@@ -1908,7 +1914,7 @@
     </row>
     <row r="87" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="1">
         <v>0.91500000000000004</v>
@@ -1916,7 +1922,7 @@
     </row>
     <row r="88" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="1">
         <v>0.91400000000000003</v>
@@ -1924,7 +1930,7 @@
     </row>
     <row r="89" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="1">
         <v>0.91</v>
@@ -1932,7 +1938,7 @@
     </row>
     <row r="90" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2">
         <v>0.90900000000000003</v>
@@ -1940,7 +1946,7 @@
     </row>
     <row r="91" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="1">
         <v>0.90400000000000003</v>
@@ -1948,7 +1954,7 @@
     </row>
     <row r="92" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="1">
         <v>0.89900000000000002</v>
@@ -1956,7 +1962,7 @@
     </row>
     <row r="93" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="1">
         <v>0.89900000000000002</v>
@@ -1964,7 +1970,7 @@
     </row>
     <row r="94" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2">
         <v>0.89800000000000002</v>
@@ -1972,7 +1978,7 @@
     </row>
     <row r="95" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="2">
         <v>0.89600000000000002</v>
@@ -1980,7 +1986,7 @@
     </row>
     <row r="96" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="1">
         <v>0.89400000000000002</v>
@@ -1988,7 +1994,7 @@
     </row>
     <row r="97" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="1">
         <v>0.89</v>
@@ -1996,7 +2002,7 @@
     </row>
     <row r="98" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2">
         <v>0.88700000000000001</v>
@@ -2004,7 +2010,7 @@
     </row>
     <row r="99" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="1">
         <v>0.88300000000000001</v>
@@ -2012,7 +2018,7 @@
     </row>
     <row r="100" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="1">
         <v>0.88100000000000001</v>
@@ -2020,7 +2026,7 @@
     </row>
     <row r="101" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="2">
         <v>0.875</v>
@@ -2028,7 +2034,7 @@
     </row>
     <row r="102" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="1">
         <v>0.871</v>
@@ -2036,7 +2042,7 @@
     </row>
     <row r="103" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="1">
         <v>0.83699999999999997</v>
@@ -2044,7 +2050,7 @@
     </row>
     <row r="104" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="1">
         <v>0.82599999999999996</v>
@@ -2052,7 +2058,7 @@
     </row>
     <row r="105" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="1">
         <v>0.79700000000000004</v>
